--- a/teaching/traditional_assets/database/data/france/france_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_precious_metals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0706</v>
+        <v>-0.0189</v>
       </c>
       <c r="E2">
-        <v>0.002550000000000004</v>
+        <v>0.0319</v>
       </c>
       <c r="G2">
-        <v>0.5142555438225976</v>
+        <v>1.015325670498084</v>
       </c>
       <c r="H2">
-        <v>0.5142555438225976</v>
+        <v>1.015325670498084</v>
       </c>
       <c r="I2">
-        <v>0.3854276663146779</v>
+        <v>0.9578544061302682</v>
       </c>
       <c r="J2">
-        <v>0.3112025143416589</v>
+        <v>0.6891230310770541</v>
       </c>
       <c r="K2">
-        <v>-2.279999999999998</v>
+        <v>18.2</v>
       </c>
       <c r="L2">
-        <v>-0.06019007391763459</v>
+        <v>0.6973180076628351</v>
       </c>
       <c r="M2">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="N2">
-        <v>0.04610169491525424</v>
+        <v>0.06223539373412362</v>
       </c>
       <c r="O2">
-        <v>-5.964912280701758</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="P2">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="Q2">
-        <v>0.04610169491525424</v>
+        <v>0.06223539373412362</v>
       </c>
       <c r="R2">
-        <v>-5.964912280701758</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>32.8</v>
+        <v>35.5</v>
       </c>
       <c r="V2">
-        <v>0.1111864406779661</v>
+        <v>0.1502963590177815</v>
       </c>
       <c r="W2">
-        <v>0.388768898488121</v>
+        <v>0.3799582463465553</v>
       </c>
       <c r="X2">
-        <v>0.0759993599739764</v>
+        <v>0.05437868308357584</v>
       </c>
       <c r="Y2">
-        <v>0.3127695385141446</v>
+        <v>0.3255795632629795</v>
       </c>
       <c r="Z2">
-        <v>0.5670658682634732</v>
+        <v>1.601226993865031</v>
       </c>
       <c r="AA2">
-        <v>0.8308218694885362</v>
+        <v>1.10344239945467</v>
       </c>
       <c r="AB2">
-        <v>0.0759993599739764</v>
+        <v>0.05437868308357584</v>
       </c>
       <c r="AC2">
-        <v>0.7548225095145598</v>
+        <v>1.049063716371094</v>
       </c>
       <c r="AD2">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-26.94</v>
+        <v>-35.5</v>
       </c>
       <c r="AH2">
-        <v>0.01947749783952669</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.05478683620044877</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.1004998880847572</v>
+        <v>-0.1768809167912307</v>
       </c>
       <c r="AK2">
-        <v>-0.3632686084142396</v>
+        <v>-2.063953488372093</v>
       </c>
       <c r="AL2">
-        <v>0.5590000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.215</v>
+        <v>-0.472</v>
       </c>
       <c r="AN2">
-        <v>0.3023735810113519</v>
-      </c>
-      <c r="AO2">
-        <v>26.11806797853309</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-1.390092879256966</v>
+        <v>-1.397637795275591</v>
       </c>
       <c r="AQ2">
-        <v>-67.90697674418605</v>
+        <v>-52.96610169491526</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batla Minerals SA (ENXTPA:MLBAT)</t>
+          <t>EURO Ressources S.A. (ENXTPA:EUR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,61 +722,79 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0706</v>
+        <v>-0.0189</v>
       </c>
       <c r="E3">
-        <v>0.0372</v>
+        <v>0.0319</v>
       </c>
       <c r="G3">
-        <v>0.2667398463227223</v>
+        <v>1.015325670498084</v>
       </c>
       <c r="H3">
-        <v>0.2667398463227223</v>
+        <v>1.015325670498084</v>
       </c>
       <c r="I3">
-        <v>0.1536772777167947</v>
+        <v>0.9578544061302682</v>
       </c>
       <c r="J3">
-        <v>0.1162319692027025</v>
+        <v>0.6891230310770541</v>
       </c>
       <c r="K3">
-        <v>1.62</v>
+        <v>18.2</v>
       </c>
       <c r="L3">
-        <v>0.1778265642151482</v>
+        <v>0.6973180076628351</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>14.7</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.06223539373412362</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>14.7</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.06223539373412362</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.1502963590177815</v>
+      </c>
+      <c r="W3">
+        <v>0.3799582463465553</v>
       </c>
       <c r="X3">
-        <v>0.0759993599739764</v>
+        <v>0.05437868308357584</v>
+      </c>
+      <c r="Y3">
+        <v>0.3255795632629795</v>
+      </c>
+      <c r="Z3">
+        <v>1.601226993865031</v>
+      </c>
+      <c r="AA3">
+        <v>1.10344239945467</v>
       </c>
       <c r="AB3">
-        <v>0.0759993599739764</v>
+        <v>0.05437868308357584</v>
+      </c>
+      <c r="AC3">
+        <v>1.049063716371094</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,284 +806,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-35.5</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.1768809167912307</v>
+      </c>
+      <c r="AK3">
+        <v>-2.063953488372093</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.472</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euro Ressources S.A. (ENXTPA:EUR)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Precious Metals</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.022</v>
-      </c>
-      <c r="E4">
-        <v>-0.0321</v>
-      </c>
-      <c r="G4">
-        <v>0.9816849816849816</v>
-      </c>
-      <c r="H4">
-        <v>0.9816849816849816</v>
-      </c>
-      <c r="I4">
-        <v>0.9597069597069596</v>
-      </c>
-      <c r="J4">
-        <v>0.6390937457604123</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>0.6593406593406593</v>
-      </c>
-      <c r="M4">
-        <v>13.6</v>
-      </c>
-      <c r="N4">
-        <v>0.064</v>
-      </c>
-      <c r="O4">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="P4">
-        <v>13.6</v>
-      </c>
-      <c r="Q4">
-        <v>0.064</v>
-      </c>
-      <c r="R4">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>31.6</v>
-      </c>
-      <c r="V4">
-        <v>0.1487058823529412</v>
-      </c>
-      <c r="W4">
-        <v>0.388768898488121</v>
-      </c>
-      <c r="X4">
-        <v>0.0759993599739764</v>
-      </c>
-      <c r="Y4">
-        <v>0.3127695385141446</v>
-      </c>
-      <c r="Z4">
-        <v>1.3</v>
-      </c>
-      <c r="AA4">
-        <v>0.8308218694885362</v>
-      </c>
-      <c r="AB4">
-        <v>0.0759993599739764</v>
-      </c>
-      <c r="AC4">
-        <v>0.7548225095145598</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-31.6</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.1746821448313986</v>
-      </c>
-      <c r="AK4">
-        <v>-1.938650306748467</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-0.774</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-1.183520599250936</v>
-      </c>
-      <c r="AQ4">
-        <v>-33.85012919896641</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Auplata Mining Group (ENXTPA:ALAMG)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Precious Metals</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-0.424</v>
-      </c>
-      <c r="G5">
-        <v>-6.63265306122449</v>
-      </c>
-      <c r="H5">
-        <v>-6.63265306122449</v>
-      </c>
-      <c r="I5">
-        <v>-8.843537414965986</v>
-      </c>
-      <c r="J5">
-        <v>-8.843537414965986</v>
-      </c>
-      <c r="K5">
-        <v>-21.9</v>
-      </c>
-      <c r="L5">
-        <v>-14.89795918367347</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1.2</v>
-      </c>
-      <c r="V5">
-        <v>0.01518987341772152</v>
-      </c>
-      <c r="W5">
-        <v>-0.584</v>
-      </c>
-      <c r="X5">
-        <v>0.07890648063370775</v>
-      </c>
-      <c r="Y5">
-        <v>-0.6629064806337077</v>
-      </c>
-      <c r="Z5">
-        <v>0.03209606986899563</v>
-      </c>
-      <c r="AA5">
-        <v>-0.2838427947598253</v>
-      </c>
-      <c r="AB5">
-        <v>0.07588042771571811</v>
-      </c>
-      <c r="AC5">
-        <v>-0.3597232224755434</v>
-      </c>
-      <c r="AD5">
-        <v>5.86</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>5.86</v>
-      </c>
-      <c r="AG5">
-        <v>4.66</v>
-      </c>
-      <c r="AH5">
-        <v>0.06905491397596041</v>
-      </c>
-      <c r="AI5">
-        <v>0.09922113105316627</v>
-      </c>
-      <c r="AJ5">
-        <v>0.0557016495338274</v>
-      </c>
-      <c r="AK5">
-        <v>0.08053923263048739</v>
-      </c>
-      <c r="AL5">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="AM5">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="AN5">
-        <v>-0.601025641025641</v>
-      </c>
-      <c r="AO5">
-        <v>-23.25581395348837</v>
-      </c>
-      <c r="AP5">
-        <v>-0.477948717948718</v>
-      </c>
-      <c r="AQ5">
-        <v>-23.25581395348837</v>
+        <v>-1.397637795275591</v>
+      </c>
+      <c r="AQ3">
+        <v>-52.96610169491526</v>
       </c>
     </row>
   </sheetData>
